--- a/Ampoule à décanter.xlsx
+++ b/Ampoule à décanter.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11796" windowHeight="2556" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="mesure avec appareil" sheetId="1" r:id="rId1"/>
+    <sheet name="mesures cônes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Feuil1!$D$2:$D$3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'mesure avec appareil'!$D$2:$D$3</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Feuil1!$D$2</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Feuil1!$F$15</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Feuil1!$F$7</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Feuil1!$F$8</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Feuil1!$F$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Feuil1!$D$2</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Feuil1!$D$3</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Feuil1!$D$3</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Feuil1!$F$10</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Feuil1!$F$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Feuil1!$F$12</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Feuil1!$F$13</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Feuil1!$F$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'mesure avec appareil'!$D$2</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'mesure avec appareil'!$F$15</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'mesure avec appareil'!$F$7</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'mesure avec appareil'!$F$8</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'mesure avec appareil'!$F$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'mesure avec appareil'!$D$2</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'mesure avec appareil'!$D$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'mesure avec appareil'!$D$3</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'mesure avec appareil'!$F$10</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'mesure avec appareil'!$F$11</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'mesure avec appareil'!$F$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'mesure avec appareil'!$F$13</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'mesure avec appareil'!$F$14</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -42,7 +43,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">13</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$G$21</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'mesure avec appareil'!$G$17</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -58,14 +59,14 @@
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Feuil1!$G$2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'mesure avec appareil'!$G$2</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rhs12" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rhs13" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Feuil1!$F$2</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Feuil1!$G$3</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Feuil1!$F$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'mesure avec appareil'!$F$2</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'mesure avec appareil'!$G$3</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'mesure avec appareil'!$F$3</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">5</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Z(mm)</t>
   </si>
@@ -100,9 +101,6 @@
     <t>V(mL)</t>
   </si>
   <si>
-    <t>H(mm)</t>
-  </si>
-  <si>
     <t>Z0 (mm) =</t>
   </si>
   <si>
@@ -137,6 +135,37 @@
   </si>
   <si>
     <t>h0 (mm)</t>
+  </si>
+  <si>
+    <t>H(mm) zcorrigé</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>périmètre (ext) mm</t>
+  </si>
+  <si>
+    <t>hypothénuses (mm)
+en prenant 0 = 1mL</t>
+  </si>
+  <si>
+    <t>hypo (mm)</t>
+  </si>
+  <si>
+    <t>Z théo (mm)</t>
+  </si>
+  <si>
+    <t>r_int (mm)</t>
+  </si>
+  <si>
+    <t>r_ext (mm)</t>
+  </si>
+  <si>
+    <t>disque cône</t>
+  </si>
+  <si>
+    <t>H cône</t>
   </si>
 </sst>
 </file>
@@ -144,7 +173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -155,12 +184,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,10 +210,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,30 +500,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
         <v>160.57505485473749</v>
       </c>
       <c r="F2">
@@ -495,9 +536,9 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
         <v>6.9519004421795128</v>
       </c>
       <c r="F3">
@@ -515,22 +556,32 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>PI()*D6^2*C6/3/1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -568,23 +619,23 @@
         <v>25.09</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C15" si="0">B8+$D$2</f>
+        <f>B8+$D$2</f>
         <v>185.66505485473749</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D15" si="1">C8*TAN(RADIANS($D$3))</f>
+        <f t="shared" ref="D8:D17" si="0">C8*TAN(RADIANS($D$3))</f>
         <v>22.638603670046468</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E15" si="2">PI()*D8^2*C8/3/1000</f>
+        <f t="shared" ref="E8:E15" si="1">PI()*D8^2*C8/3/1000</f>
         <v>99.645584976201121</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F15" si="3">A8-E8</f>
+        <f>A8-E8</f>
         <v>0.35441502379887879</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G15" si="4">ABS(F8)</f>
+        <f t="shared" ref="G8:G15" si="2">ABS(F8)</f>
         <v>0.35441502379887879</v>
       </c>
     </row>
@@ -596,23 +647,23 @@
         <v>73.069999999999993</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f>B9+$D$2</f>
         <v>233.64505485473748</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>28.488924856974517</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>28.488924856974517</v>
-      </c>
-      <c r="E9" s="2">
+        <v>198.58083428392732</v>
+      </c>
+      <c r="F9" s="2">
+        <f>A9-E9</f>
+        <v>1.4191657160726834</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>198.58083428392732</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4191657160726834</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="4"/>
         <v>1.4191657160726834</v>
       </c>
     </row>
@@ -624,23 +675,23 @@
         <v>107.04</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f>B10+$D$2</f>
         <v>267.61505485473748</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>32.630971766519032</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>32.630971766519032</v>
-      </c>
-      <c r="E10" s="2">
+        <v>298.40024421951063</v>
+      </c>
+      <c r="F10" s="2">
+        <f>A10-E10</f>
+        <v>1.5997557804893745</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>298.40024421951063</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="3"/>
-        <v>1.5997557804893745</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="4"/>
         <v>1.5997557804893745</v>
       </c>
     </row>
@@ -652,23 +703,23 @@
         <v>134.07</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f>B11+$D$2</f>
         <v>294.64505485473751</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>35.926807149650863</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>35.926807149650863</v>
-      </c>
-      <c r="E11" s="2">
+        <v>398.25846912950158</v>
+      </c>
+      <c r="F11" s="2">
+        <f>A11-E11</f>
+        <v>1.7415308704984227</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>398.25846912950158</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7415308704984227</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="4"/>
         <v>1.7415308704984227</v>
       </c>
     </row>
@@ -680,23 +731,23 @@
         <v>157.08000000000001</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f>B12+$D$2</f>
         <v>317.6550548547375</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>38.732473896445661</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>38.732473896445661</v>
-      </c>
-      <c r="E12" s="2">
+        <v>499.03943114315155</v>
+      </c>
+      <c r="F12" s="2">
+        <f>A12-E12</f>
+        <v>0.96056885684845383</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>499.03943114315155</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.96056885684845383</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="4"/>
         <v>0.96056885684845383</v>
       </c>
     </row>
@@ -708,23 +759,23 @@
         <v>177.2</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f>B13+$D$2</f>
         <v>337.7750548547375</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>41.185755728062844</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>41.185755728062844</v>
-      </c>
-      <c r="E13" s="2">
+        <v>599.99864542269847</v>
+      </c>
+      <c r="F13" s="2">
+        <f>A13-E13</f>
+        <v>1.3545773015266604E-3</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>599.99864542269847</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3545773015266604E-3</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="4"/>
         <v>1.3545773015266604E-3</v>
       </c>
     </row>
@@ -736,23 +787,23 @@
         <v>195.38</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f>B14+$D$2</f>
         <v>355.95505485473745</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>43.402488516273593</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>43.402488516273593</v>
-      </c>
-      <c r="E14" s="2">
+        <v>702.18741952061316</v>
+      </c>
+      <c r="F14" s="2">
+        <f>A14-E14</f>
+        <v>-2.1874195206131617</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>702.18741952061316</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.1874195206131617</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="4"/>
         <v>2.1874195206131617</v>
       </c>
     </row>
@@ -764,76 +815,480 @@
         <v>212.14</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f>B15+$D$2</f>
         <v>372.71505485473745</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>45.446077159310569</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>45.446077159310569</v>
-      </c>
-      <c r="E15" s="2">
+        <v>806.11751283583885</v>
+      </c>
+      <c r="F15" s="2">
+        <f>A15-E15</f>
+        <v>-6.117512835838852</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>806.11751283583885</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="3"/>
-        <v>-6.117512835838852</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="4"/>
         <v>6.117512835838852</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(3*E16*1000/(PI()*TAN(RADIANS($D$3))^2))^(1/3)</f>
+        <v>400.47691172182783</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>48.831149677401498</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1000</v>
+      </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>60.966248300625786</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM(G7:G15)</f>
+        <v>15.592825379518274</v>
+      </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <f>D17*2</f>
+        <v>121.93249660125157</v>
+      </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19">
         <f>(L18+L17)*TAN(RADIANS(L16))</f>
         <v>21.118944475299593</v>
       </c>
     </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20">
         <f>(PI()*L19^2*(L18+L17)/3)/1000</f>
         <v>80.334386540585655</v>
-      </c>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G21" s="2">
-        <f>SUM(G7:G15)</f>
-        <v>15.592825379518274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6.9519004421795128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D7">
+        <f>C7+$D$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>C8+$D$5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D29" si="0">C9+$D$5</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>30.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>37.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>43.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>94.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>114.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>193</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>300</v>
+      </c>
+      <c r="C21">
+        <v>227</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>400</v>
+      </c>
+      <c r="C22">
+        <v>254</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <v>277</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>600</v>
+      </c>
+      <c r="C24">
+        <v>297</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>700</v>
+      </c>
+      <c r="C25">
+        <v>316</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>800</v>
+      </c>
+      <c r="C26">
+        <v>332</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>900</v>
+      </c>
+      <c r="C27">
+        <v>348</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28">
+        <v>362</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="E28">
+        <v>320</v>
+      </c>
+      <c r="F28">
+        <f>E28/(2*PI())</f>
+        <v>50.929581789406512</v>
+      </c>
+      <c r="G28">
+        <v>48.8</v>
+      </c>
+      <c r="H28">
+        <f>G28/TAN(RADIANS(E1))</f>
+        <v>400.22144514589633</v>
+      </c>
+      <c r="I28">
+        <f>G28^2*PI()*H28/ 3000</f>
+        <v>998.0875028785897</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>441</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f>G28*461/382</f>
+        <v>58.892146596858638</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f>H32*2</f>
+        <v>117.78429319371728</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34">
+        <f>H33+2*(F28-G28)</f>
+        <v>122.04345677253031</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <f>H28*D29/D28</f>
+        <v>482.98975448235132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>